--- a/biology/Botanique/Uvariopsis_submontana/Uvariopsis_submontana.xlsx
+++ b/biology/Botanique/Uvariopsis_submontana/Uvariopsis_submontana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Uvariopsis submontana Kenfack, Gosline &amp; Gereau est une espèce de plantes de la famille des Annonaceae et du genre Uvariopsis[2], endémique du Cameroun.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Uvariopsis submontana Kenfack, Gosline &amp; Gereau est une espèce de plantes de la famille des Annonaceae et du genre Uvariopsis, endémique du Cameroun.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un arbre monoïque dont la hauteur est d'environ 8 à 15, voire 25 m. Son diamètre est d'environ 30 cm[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un arbre monoïque dont la hauteur est d'environ 8 à 15, voire 25 m. Son diamètre est d'environ 30 cm.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle pousse au Cameroun[4] dans les forêts sempervirentes sub-montagnardes  entre 840 et 1 200 mètres d’altitude[5]. Endémique, assez rare, elle est présente dans la région du Sud-Ouest (mont Koupé, monts Rumpi) et dans celle du Littoral[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle pousse au Cameroun dans les forêts sempervirentes sub-montagnardes  entre 840 et 1 200 mètres d’altitude. Endémique, assez rare, elle est présente dans la région du Sud-Ouest (mont Koupé, monts Rumpi) et dans celle du Littoral.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Menaces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est menacée par la destruction des terres en faveur de l’agriculture[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est menacée par la destruction des terres en faveur de l’agriculture.
 </t>
         </is>
       </c>
